--- a/CodeSystem-swallow-procedures-cs.xlsx
+++ b/CodeSystem-swallow-procedures-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T10:08:33+00:00</t>
+    <t>2026-02-09T11:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-swallow-procedures-cs.xlsx
+++ b/CodeSystem-swallow-procedures-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T11:30:19+00:00</t>
+    <t>2026-02-09T12:15:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-swallow-procedures-cs.xlsx
+++ b/CodeSystem-swallow-procedures-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T12:15:55+00:00</t>
+    <t>2026-02-09T12:28:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-swallow-procedures-cs.xlsx
+++ b/CodeSystem-swallow-procedures-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T12:28:26+00:00</t>
+    <t>2026-02-10T07:57:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-swallow-procedures-cs.xlsx
+++ b/CodeSystem-swallow-procedures-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T07:57:24+00:00</t>
+    <t>2026-02-10T12:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-swallow-procedures-cs.xlsx
+++ b/CodeSystem-swallow-procedures-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T12:50:25+00:00</t>
+    <t>2026-02-16T11:22:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-swallow-procedures-cs.xlsx
+++ b/CodeSystem-swallow-procedures-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-16T11:22:57+00:00</t>
+    <t>2026-02-17T08:49:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-swallow-procedures-cs.xlsx
+++ b/CodeSystem-swallow-procedures-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T08:49:13+00:00</t>
+    <t>2026-02-17T08:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-swallow-procedures-cs.xlsx
+++ b/CodeSystem-swallow-procedures-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T08:59:32+00:00</t>
+    <t>2026-02-17T12:24:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-swallow-procedures-cs.xlsx
+++ b/CodeSystem-swallow-procedures-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T12:24:33+00:00</t>
+    <t>2026-02-18T13:09:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-swallow-procedures-cs.xlsx
+++ b/CodeSystem-swallow-procedures-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T13:09:07+00:00</t>
+    <t>2026-02-18T13:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-swallow-procedures-cs.xlsx
+++ b/CodeSystem-swallow-procedures-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T13:35:35+00:00</t>
+    <t>2026-02-18T14:43:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-swallow-procedures-cs.xlsx
+++ b/CodeSystem-swallow-procedures-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T14:43:59+00:00</t>
+    <t>2026-02-19T08:12:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-swallow-procedures-cs.xlsx
+++ b/CodeSystem-swallow-procedures-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T08:12:22+00:00</t>
+    <t>2026-02-19T08:49:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-swallow-procedures-cs.xlsx
+++ b/CodeSystem-swallow-procedures-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T08:49:26+00:00</t>
+    <t>2026-02-19T09:19:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-swallow-procedures-cs.xlsx
+++ b/CodeSystem-swallow-procedures-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T09:19:55+00:00</t>
+    <t>2026-02-19T09:59:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-swallow-procedures-cs.xlsx
+++ b/CodeSystem-swallow-procedures-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T09:59:51+00:00</t>
+    <t>2026-02-19T10:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-swallow-procedures-cs.xlsx
+++ b/CodeSystem-swallow-procedures-cs.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Swallow Procedures Code System</t>
+    <t>Swallow Procedures CodeSystem</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T10:15:59+00:00</t>
+    <t>2026-02-19T10:59:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,11 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Codes representing various swallowing assessment procedures.</t>
+    <t>Local CodeSystem representing swallowing screening/assessment tools often documented by acronym or local naming.
+**Primary use-case**
+- Provide stable, implementable codes when upstream systems cannot supply SNOMED CT equivalents.
+**FHIR placement**
+- Included in `SwallowProceduresVS` to be used in `Procedure.code` and (optionally) `Procedure.used.concept`.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/CodeSystem-swallow-procedures-cs.xlsx
+++ b/CodeSystem-swallow-procedures-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T10:59:57+00:00</t>
+    <t>2026-02-19T11:36:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,11 +81,9 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Local CodeSystem representing swallowing screening/assessment tools often documented by acronym or local naming.
-**Primary use-case**
-- Provide stable, implementable codes when upstream systems cannot supply SNOMED CT equivalents.
+    <t xml:space="preserve">Local CodeSystem representing swallowing screening/assessment tools often documented by acronym or local naming.
 **FHIR placement**
-- Included in `SwallowProceduresVS` to be used in `Procedure.code` and (optionally) `Procedure.used.concept`.</t>
+- Included in `SwallowProceduresVS` to be used in `Procedure.code` </t>
   </si>
   <si>
     <t>Purpose</t>

--- a/CodeSystem-swallow-procedures-cs.xlsx
+++ b/CodeSystem-swallow-procedures-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T11:36:03+00:00</t>
+    <t>2026-02-19T12:37:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-swallow-procedures-cs.xlsx
+++ b/CodeSystem-swallow-procedures-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T12:37:09+00:00</t>
+    <t>2026-02-19T14:25:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-swallow-procedures-cs.xlsx
+++ b/CodeSystem-swallow-procedures-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T14:25:22+00:00</t>
+    <t>2026-02-19T14:52:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-swallow-procedures-cs.xlsx
+++ b/CodeSystem-swallow-procedures-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T14:52:32+00:00</t>
+    <t>2026-02-20T08:36:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-swallow-procedures-cs.xlsx
+++ b/CodeSystem-swallow-procedures-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:36:31+00:00</t>
+    <t>2026-02-20T08:43:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-swallow-procedures-cs.xlsx
+++ b/CodeSystem-swallow-procedures-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:43:58+00:00</t>
+    <t>2026-02-20T08:47:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-swallow-procedures-cs.xlsx
+++ b/CodeSystem-swallow-procedures-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:47:00+00:00</t>
+    <t>2026-02-20T09:39:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-swallow-procedures-cs.xlsx
+++ b/CodeSystem-swallow-procedures-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T09:39:34+00:00</t>
+    <t>2026-02-20T09:50:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-swallow-procedures-cs.xlsx
+++ b/CodeSystem-swallow-procedures-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T09:50:49+00:00</t>
+    <t>2026-02-20T10:05:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-swallow-procedures-cs.xlsx
+++ b/CodeSystem-swallow-procedures-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:05:07+00:00</t>
+    <t>2026-02-20T10:17:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-swallow-procedures-cs.xlsx
+++ b/CodeSystem-swallow-procedures-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:17:22+00:00</t>
+    <t>2026-02-20T10:31:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-swallow-procedures-cs.xlsx
+++ b/CodeSystem-swallow-procedures-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:31:35+00:00</t>
+    <t>2026-02-24T10:24:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
